--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_DLQuangHuy.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/2.XuLyBH/XLBH2107_DLQuangHuy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang7\2.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang7\2.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="34" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
   <si>
     <t>STT</t>
   </si>
@@ -979,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2762,6 +2762,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2773,13 +2780,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2790,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3003,23 +3003,49 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="37">
+        <v>44393</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44394</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="39">
+        <v>867717030418488</v>
+      </c>
       <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="1"/>
+      <c r="G6" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="55"/>
+      <c r="I6" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="K6" s="52"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="L6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
       <c r="U6" s="72" t="s">
@@ -3435,7 +3461,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3872,7 +3898,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -3968,7 +3994,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4547,6 +4573,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4558,13 +4591,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
